--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,100 +40,97 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>addicted</t>
   </si>
   <si>
     <t>boring</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>weird</t>
   </si>
   <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>weird</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>fucking</t>
+    <t>dark</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>false</t>
+    <t>serious</t>
   </si>
   <si>
     <t>fake</t>
@@ -148,52 +145,52 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>new</t>
+    <t>true</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>…</t>
+    <t>media</t>
   </si>
   <si>
     <t>positive</t>
@@ -554,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -676,10 +673,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -723,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -794,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.86</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9326923076923077</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9242424242424242</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C8">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,10 +888,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>0.7192982456140351</v>
@@ -923,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>0.7</v>
@@ -973,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.5466666666666666</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L10">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.775</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.5333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,10 +1073,10 @@
         <v>0.75</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.4482758620689655</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1170,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.3684210526315789</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1220,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6470588235294118</v>
+        <v>0.7</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.2424242424242424</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1270,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.2222222222222222</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1320,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.1666666666666667</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="L17">
         <v>8</v>
@@ -1365,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1370,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5454545454545454</v>
+        <v>0.55</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>0.1525423728813559</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="L18">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1415,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>50</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1423,13 +1420,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1441,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>0.06284153005464481</v>
+        <v>0.03180212014134275</v>
       </c>
       <c r="L19">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1465,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1029</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1473,13 +1470,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1491,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.01296296296296296</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1515,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1523,13 +1520,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5217391304347826</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C21">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1541,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.004032258064516129</v>
+        <v>0.009036144578313253</v>
       </c>
       <c r="L21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1565,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1729</v>
+        <v>658</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1573,13 +1570,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1591,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1599,13 +1596,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1617,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1625,13 +1622,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4615384615384616</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1643,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1651,13 +1648,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4117647058823529</v>
+        <v>0.375</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1677,13 +1674,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4042553191489361</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1695,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1703,13 +1700,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3928571428571428</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1721,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1729,13 +1726,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.391304347826087</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1747,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1755,13 +1752,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.375</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1773,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1781,13 +1778,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3142857142857143</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1799,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1807,13 +1804,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3076923076923077</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1825,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1833,13 +1830,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2857142857142857</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1851,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1859,13 +1856,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.282051282051282</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1877,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1885,13 +1882,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.25</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1903,33 +1900,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="C35">
-        <v>10</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
